--- a/Code/Results/Cases/Case_2_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.67270007214602</v>
+        <v>7.374395229308384</v>
       </c>
       <c r="C2">
-        <v>6.391857790948427</v>
+        <v>5.203795761811899</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.24902198256711</v>
+        <v>22.43784363511274</v>
       </c>
       <c r="F2">
-        <v>29.45111589322947</v>
+        <v>38.4438280466111</v>
       </c>
       <c r="G2">
-        <v>17.1290724212698</v>
+        <v>24.55215707027971</v>
       </c>
       <c r="H2">
-        <v>7.875410747506931</v>
+        <v>13.36719475602441</v>
       </c>
       <c r="I2">
-        <v>11.61180064080996</v>
+        <v>19.20001780696323</v>
       </c>
       <c r="J2">
-        <v>4.753768924441575</v>
+        <v>7.802901303766303</v>
       </c>
       <c r="K2">
-        <v>10.58587119080185</v>
+        <v>8.010754545515489</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.81810586086849</v>
+        <v>17.7238058941527</v>
       </c>
       <c r="N2">
-        <v>11.85092319078751</v>
+        <v>18.09932247087093</v>
       </c>
       <c r="O2">
-        <v>12.15758930561735</v>
+        <v>19.76198620739943</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.98584970074833</v>
+        <v>7.077448063182628</v>
       </c>
       <c r="C3">
-        <v>6.129057397299265</v>
+        <v>5.096704019498737</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.44967278911373</v>
+        <v>22.33542145644505</v>
       </c>
       <c r="F3">
-        <v>28.48470839798873</v>
+        <v>38.38599728069765</v>
       </c>
       <c r="G3">
-        <v>17.05491908362908</v>
+        <v>24.64510191976469</v>
       </c>
       <c r="H3">
-        <v>7.957666425388998</v>
+        <v>13.41017223664875</v>
       </c>
       <c r="I3">
-        <v>11.79336720800877</v>
+        <v>19.28218386667823</v>
       </c>
       <c r="J3">
-        <v>4.777311009609798</v>
+        <v>7.811596499272455</v>
       </c>
       <c r="K3">
-        <v>10.06951968084994</v>
+        <v>7.779556212349416</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.08560974042065</v>
+        <v>17.59941163622951</v>
       </c>
       <c r="N3">
-        <v>12.00348204117933</v>
+        <v>18.14824180939638</v>
       </c>
       <c r="O3">
-        <v>12.25177599640898</v>
+        <v>19.83652868336744</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.54079374549357</v>
+        <v>6.889245488179652</v>
       </c>
       <c r="C4">
-        <v>5.961543812111195</v>
+        <v>5.029201761364854</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.95094701262468</v>
+        <v>22.27712177456487</v>
       </c>
       <c r="F4">
-        <v>27.89776017714151</v>
+        <v>38.35989117209337</v>
       </c>
       <c r="G4">
-        <v>17.03026129319937</v>
+        <v>24.70940765283616</v>
       </c>
       <c r="H4">
-        <v>8.012048311619177</v>
+        <v>13.43832495559749</v>
       </c>
       <c r="I4">
-        <v>11.91185391990501</v>
+        <v>19.33578196842974</v>
       </c>
       <c r="J4">
-        <v>4.792292015737726</v>
+        <v>7.817233551842567</v>
       </c>
       <c r="K4">
-        <v>9.737718893712621</v>
+        <v>7.632630657485709</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.62174992726644</v>
+        <v>17.52562396554414</v>
       </c>
       <c r="N4">
-        <v>12.09978236697902</v>
+        <v>18.17979661808574</v>
       </c>
       <c r="O4">
-        <v>12.31886368462867</v>
+        <v>19.88591780597908</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.35360774205692</v>
+        <v>6.811185048778993</v>
       </c>
       <c r="C5">
-        <v>5.891792269867153</v>
+        <v>5.001277900038029</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.7460118526275</v>
+        <v>22.25453599160877</v>
       </c>
       <c r="F5">
-        <v>27.66052087253163</v>
+        <v>38.35162517872366</v>
       </c>
       <c r="G5">
-        <v>17.02526349017673</v>
+        <v>24.73742536140879</v>
       </c>
       <c r="H5">
-        <v>8.035158817988899</v>
+        <v>13.45024152740713</v>
       </c>
       <c r="I5">
-        <v>11.9618486440171</v>
+        <v>19.35841576266009</v>
       </c>
       <c r="J5">
-        <v>4.798530311646246</v>
+        <v>7.819605865296452</v>
       </c>
       <c r="K5">
-        <v>9.598883469867271</v>
+        <v>7.571562179373986</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.42941327062484</v>
+        <v>17.49623206897485</v>
       </c>
       <c r="N5">
-        <v>12.13969468502541</v>
+        <v>18.19303819089714</v>
       </c>
       <c r="O5">
-        <v>12.34843755153632</v>
+        <v>19.90695388738918</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.32217558212877</v>
+        <v>6.798144157934363</v>
       </c>
       <c r="C6">
-        <v>5.880122077919197</v>
+        <v>4.99661673355544</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.71188907277871</v>
+        <v>22.25085691285107</v>
       </c>
       <c r="F6">
-        <v>27.62125494448609</v>
+        <v>38.35039610618799</v>
       </c>
       <c r="G6">
-        <v>17.02473262266955</v>
+        <v>24.74218693915891</v>
       </c>
       <c r="H6">
-        <v>8.039052936042884</v>
+        <v>13.45224710148193</v>
       </c>
       <c r="I6">
-        <v>11.97025213664869</v>
+        <v>19.36222194768155</v>
       </c>
       <c r="J6">
-        <v>4.799574266280411</v>
+        <v>7.820004331802015</v>
       </c>
       <c r="K6">
-        <v>9.575613972739395</v>
+        <v>7.561351303296399</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.39728369111204</v>
+        <v>17.49139319545729</v>
       </c>
       <c r="N6">
-        <v>12.1463627485544</v>
+        <v>18.19526008909742</v>
       </c>
       <c r="O6">
-        <v>12.35348062611679</v>
+        <v>19.91050183366237</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.53829279448</v>
+        <v>6.888198113476665</v>
       </c>
       <c r="C7">
-        <v>5.960609060643888</v>
+        <v>5.028826823727199</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.94818965752293</v>
+        <v>22.27681240741706</v>
       </c>
       <c r="F7">
-        <v>27.8945523563842</v>
+        <v>38.35977007876599</v>
       </c>
       <c r="G7">
-        <v>17.03017371248801</v>
+        <v>24.70977818012251</v>
       </c>
       <c r="H7">
-        <v>8.012356175929083</v>
+        <v>13.43848386787178</v>
       </c>
       <c r="I7">
-        <v>11.91252130456107</v>
+        <v>19.33608400757666</v>
       </c>
       <c r="J7">
-        <v>4.792375605911774</v>
+        <v>7.817265241079976</v>
       </c>
       <c r="K7">
-        <v>9.735861055664103</v>
+        <v>7.631811830384254</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.61916906830805</v>
+        <v>17.5252248011903</v>
       </c>
       <c r="N7">
-        <v>12.10031791827268</v>
+        <v>18.1799736475906</v>
       </c>
       <c r="O7">
-        <v>12.31925359800752</v>
+        <v>19.88619782373262</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.44073735397574</v>
+        <v>7.273290002085167</v>
       </c>
       <c r="C8">
-        <v>6.302553887723959</v>
+        <v>5.167246813987339</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.97521418300506</v>
+        <v>22.40158758889747</v>
       </c>
       <c r="F8">
-        <v>29.11675738079135</v>
+        <v>38.42194209853333</v>
       </c>
       <c r="G8">
-        <v>17.09905697520235</v>
+        <v>24.58269809676918</v>
       </c>
       <c r="H8">
-        <v>7.902952132742932</v>
+        <v>13.3816474629691</v>
       </c>
       <c r="I8">
-        <v>11.67291907921237</v>
+        <v>19.22769568973256</v>
       </c>
       <c r="J8">
-        <v>4.761777742034534</v>
+        <v>7.805837638475041</v>
       </c>
       <c r="K8">
-        <v>10.41094357740967</v>
+        <v>7.932099780906807</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.56859850164942</v>
+        <v>17.68039273775248</v>
       </c>
       <c r="N8">
-        <v>11.90298487879476</v>
+        <v>18.11587536308782</v>
       </c>
       <c r="O8">
-        <v>12.18808685519974</v>
+        <v>19.78693681654588</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.02411375577781</v>
+        <v>7.977599012635157</v>
       </c>
       <c r="C9">
-        <v>6.922135922160999</v>
+        <v>5.423862795065766</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.91543896862924</v>
+        <v>22.68180733605704</v>
       </c>
       <c r="F9">
-        <v>31.55095346534886</v>
+        <v>38.61801363421952</v>
       </c>
       <c r="G9">
-        <v>17.40787751607199</v>
+        <v>24.39122974276666</v>
       </c>
       <c r="H9">
-        <v>7.720399668595509</v>
+        <v>13.28417084122097</v>
       </c>
       <c r="I9">
-        <v>11.26116666787506</v>
+        <v>19.04009600582378</v>
       </c>
       <c r="J9">
-        <v>4.705895986909407</v>
+        <v>7.785785179004176</v>
       </c>
       <c r="K9">
-        <v>11.61465913780067</v>
+        <v>8.479389878658514</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.3100369291835</v>
+        <v>18.00405863141747</v>
       </c>
       <c r="N9">
-        <v>11.53649416520027</v>
+        <v>18.00217923592677</v>
       </c>
       <c r="O9">
-        <v>12.00864243029226</v>
+        <v>19.62103398202681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.07298995809342</v>
+        <v>8.459218758925141</v>
       </c>
       <c r="C10">
-        <v>7.343950245547705</v>
+        <v>5.602166956147967</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.28396302243554</v>
+        <v>22.90809023444778</v>
       </c>
       <c r="F10">
-        <v>33.34580322421045</v>
+        <v>38.80653941706633</v>
       </c>
       <c r="G10">
-        <v>17.75058200521047</v>
+        <v>24.28615990173172</v>
       </c>
       <c r="H10">
-        <v>7.60762305224114</v>
+        <v>13.22104910937764</v>
       </c>
       <c r="I10">
-        <v>10.99798944992196</v>
+        <v>18.91743866181478</v>
       </c>
       <c r="J10">
-        <v>4.667273611765109</v>
+        <v>7.772477214856393</v>
       </c>
       <c r="K10">
-        <v>12.42275408544845</v>
+        <v>8.853584832421355</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.54502259567161</v>
+        <v>18.25203763454151</v>
       </c>
       <c r="N10">
-        <v>11.27918390291267</v>
+        <v>17.9258984410666</v>
       </c>
       <c r="O10">
-        <v>11.93040399916229</v>
+        <v>19.51670678536665</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.52529952631313</v>
+        <v>8.669731376000261</v>
       </c>
       <c r="C11">
-        <v>7.528244263520076</v>
+        <v>5.680833858929668</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.89233886542613</v>
+        <v>23.01516727104783</v>
       </c>
       <c r="F11">
-        <v>34.16084545216434</v>
+        <v>38.90176201410328</v>
       </c>
       <c r="G11">
-        <v>17.93337550515332</v>
+        <v>24.2461705683763</v>
       </c>
       <c r="H11">
-        <v>7.56140127111037</v>
+        <v>13.19417214255724</v>
       </c>
       <c r="I11">
-        <v>10.88779612548685</v>
+        <v>18.86492571586032</v>
       </c>
       <c r="J11">
-        <v>4.650214137095705</v>
+        <v>7.766729789246961</v>
       </c>
       <c r="K11">
-        <v>12.77340652020069</v>
+        <v>9.017303629490446</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.17431086900208</v>
+        <v>18.36669832934271</v>
       </c>
       <c r="N11">
-        <v>11.16460657150296</v>
+        <v>17.89275743311297</v>
       </c>
       <c r="O11">
-        <v>11.90785083388957</v>
+        <v>19.47306693761943</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.69301397451309</v>
+        <v>8.748158492768932</v>
       </c>
       <c r="C12">
-        <v>7.596918613606039</v>
+        <v>5.710254223592901</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.12056584406357</v>
+        <v>23.05628311356137</v>
       </c>
       <c r="F12">
-        <v>34.46907556276092</v>
+        <v>38.93916071085518</v>
       </c>
       <c r="G12">
-        <v>18.00657789290858</v>
+        <v>24.2321561882069</v>
       </c>
       <c r="H12">
-        <v>7.544669952893976</v>
+        <v>13.18425836454625</v>
       </c>
       <c r="I12">
-        <v>10.84753253314035</v>
+        <v>18.84551231258391</v>
       </c>
       <c r="J12">
-        <v>4.643826049290348</v>
+        <v>7.764597256758055</v>
       </c>
       <c r="K12">
-        <v>12.90372927586708</v>
+        <v>9.078331647383663</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.40778852493366</v>
+        <v>18.41035272381431</v>
       </c>
       <c r="N12">
-        <v>11.12156597191413</v>
+        <v>17.88043106010581</v>
       </c>
       <c r="O12">
-        <v>11.90130510517633</v>
+        <v>19.45709158391645</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.65705210099694</v>
+        <v>8.73132596184616</v>
       </c>
       <c r="C13">
-        <v>7.58217819582079</v>
+        <v>5.70393470254143</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.07151028200798</v>
+        <v>23.04740325903516</v>
       </c>
       <c r="F13">
-        <v>34.40271370627074</v>
+        <v>38.93104698519058</v>
       </c>
       <c r="G13">
-        <v>17.9906337000905</v>
+        <v>24.23512414519354</v>
       </c>
       <c r="H13">
-        <v>7.548238322281686</v>
+        <v>13.1863817391831</v>
       </c>
       <c r="I13">
-        <v>10.8561372947833</v>
+        <v>18.84967234188256</v>
       </c>
       <c r="J13">
-        <v>4.645198660069946</v>
+        <v>7.765054586362181</v>
       </c>
       <c r="K13">
-        <v>12.87577171775736</v>
+        <v>9.065231749836599</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.35771828064839</v>
+        <v>18.40094103009161</v>
       </c>
       <c r="N13">
-        <v>11.13082022055495</v>
+        <v>17.88307584233671</v>
       </c>
       <c r="O13">
-        <v>11.90262419418889</v>
+        <v>19.46050768116724</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.5391689022796</v>
+        <v>8.676209755600853</v>
       </c>
       <c r="C14">
-        <v>7.533916573590241</v>
+        <v>5.683261782985327</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.91115890844517</v>
+        <v>23.01853867015945</v>
       </c>
       <c r="F14">
-        <v>34.1862129493792</v>
+        <v>38.90481209720507</v>
       </c>
       <c r="G14">
-        <v>17.93931750455654</v>
+        <v>24.24499494303347</v>
       </c>
       <c r="H14">
-        <v>7.560009058680111</v>
+        <v>13.19335124172799</v>
       </c>
       <c r="I14">
-        <v>10.88445369684713</v>
+        <v>18.86331910270899</v>
       </c>
       <c r="J14">
-        <v>4.649687151037972</v>
+        <v>7.766553465817258</v>
       </c>
       <c r="K14">
-        <v>12.78417769584165</v>
+        <v>9.022344034568345</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.19361544917875</v>
+        <v>18.37028527784571</v>
       </c>
       <c r="N14">
-        <v>11.16105868225827</v>
+        <v>17.89173886237967</v>
       </c>
       <c r="O14">
-        <v>11.90727164049585</v>
+        <v>19.47174160534036</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.46649796470012</v>
+        <v>8.642280045468521</v>
       </c>
       <c r="C15">
-        <v>7.504209321744113</v>
+        <v>5.670550458277464</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.81265596394514</v>
+        <v>23.00093143366358</v>
       </c>
       <c r="F15">
-        <v>34.05354137820583</v>
+        <v>38.88891633025625</v>
       </c>
       <c r="G15">
-        <v>17.90840657253567</v>
+        <v>24.25118825385846</v>
       </c>
       <c r="H15">
-        <v>7.567320772197022</v>
+        <v>13.19765462892071</v>
       </c>
       <c r="I15">
-        <v>10.90199195381862</v>
+        <v>18.87173961513846</v>
       </c>
       <c r="J15">
-        <v>4.652445811650498</v>
+        <v>7.767477283829092</v>
       </c>
       <c r="K15">
-        <v>12.72775255693415</v>
+        <v>8.995946983389297</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.09247191438275</v>
+        <v>18.35153738709682</v>
       </c>
       <c r="N15">
-        <v>11.17962559851747</v>
+        <v>17.89707428159817</v>
       </c>
       <c r="O15">
-        <v>11.91038170425129</v>
+        <v>19.47869437623633</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.04293114162956</v>
+        <v>8.445283678502337</v>
       </c>
       <c r="C16">
-        <v>7.331751420757511</v>
+        <v>5.596975167443835</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>21.24390864483932</v>
+        <v>22.9011734997365</v>
       </c>
       <c r="F16">
-        <v>33.29249127675706</v>
+        <v>38.80050506969258</v>
       </c>
       <c r="G16">
-        <v>17.73918748537702</v>
+        <v>24.28893092894859</v>
       </c>
       <c r="H16">
-        <v>7.61074944912759</v>
+        <v>13.22284253241787</v>
       </c>
       <c r="I16">
-        <v>11.00539039730325</v>
+        <v>18.92093658114808</v>
       </c>
       <c r="J16">
-        <v>4.668398635091392</v>
+        <v>7.772858974136931</v>
       </c>
       <c r="K16">
-        <v>12.39949475076304</v>
+        <v>8.842751598218964</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.5032191258052</v>
+        <v>18.24457888890606</v>
       </c>
       <c r="N16">
-        <v>11.28672086667564</v>
+        <v>17.92809559238584</v>
       </c>
       <c r="O16">
-        <v>11.93215043554015</v>
+        <v>19.51963568151249</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.77672905044009</v>
+        <v>8.322193215840779</v>
       </c>
       <c r="C17">
-        <v>7.223992226866066</v>
+        <v>5.551200091151691</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.89128028728277</v>
+        <v>22.84101651879454</v>
       </c>
       <c r="F17">
-        <v>32.82508803265006</v>
+        <v>38.74867689228675</v>
       </c>
       <c r="G17">
-        <v>17.64235347376187</v>
+        <v>24.31408893621573</v>
       </c>
       <c r="H17">
-        <v>7.638721235805497</v>
+        <v>13.23876490580546</v>
       </c>
       <c r="I17">
-        <v>11.0713262716756</v>
+        <v>18.95195841314103</v>
       </c>
       <c r="J17">
-        <v>4.678314842647961</v>
+        <v>7.776238829088235</v>
       </c>
       <c r="K17">
-        <v>12.19375737880405</v>
+        <v>8.747080304646994</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.16588280611447</v>
+        <v>18.17941566464308</v>
       </c>
       <c r="N17">
-        <v>11.3530480503046</v>
+        <v>17.94752498176876</v>
       </c>
       <c r="O17">
-        <v>11.94892850159196</v>
+        <v>19.5457306716591</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.62127889783976</v>
+        <v>8.250590157480312</v>
       </c>
       <c r="C18">
-        <v>7.161298406267627</v>
+        <v>5.524642351165885</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.6871286435092</v>
+        <v>22.8068071712477</v>
       </c>
       <c r="F18">
-        <v>32.55612404518383</v>
+        <v>38.7197585934527</v>
       </c>
       <c r="G18">
-        <v>17.58918299825895</v>
+        <v>24.32929370091194</v>
       </c>
       <c r="H18">
-        <v>7.655285448811293</v>
+        <v>13.24809599664057</v>
       </c>
       <c r="I18">
-        <v>11.11014140793254</v>
+        <v>18.97011051215742</v>
       </c>
       <c r="J18">
-        <v>4.68406647533139</v>
+        <v>7.778211685472583</v>
       </c>
       <c r="K18">
-        <v>12.07382775388048</v>
+        <v>8.691442238244136</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.98778640645533</v>
+        <v>18.14211191054511</v>
       </c>
       <c r="N18">
-        <v>11.39143109706475</v>
+        <v>17.95884709079955</v>
       </c>
       <c r="O18">
-        <v>11.95979862608427</v>
+        <v>19.56109923775536</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.56824457128263</v>
+        <v>8.226210225090618</v>
       </c>
       <c r="C19">
-        <v>7.139949562075889</v>
+        <v>5.515611560453584</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20.61778207409082</v>
+        <v>22.79529250180252</v>
       </c>
       <c r="F19">
-        <v>32.46504250291451</v>
+        <v>38.71012113242946</v>
       </c>
       <c r="G19">
-        <v>17.57161039746289</v>
+        <v>24.33456774114127</v>
       </c>
       <c r="H19">
-        <v>7.660974282146777</v>
+        <v>13.25128505872669</v>
       </c>
       <c r="I19">
-        <v>11.12343378265736</v>
+        <v>18.97630960639642</v>
       </c>
       <c r="J19">
-        <v>4.68602218046779</v>
+        <v>7.778884621577367</v>
       </c>
       <c r="K19">
-        <v>12.03294857034707</v>
+        <v>8.672500375602771</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.92717967560304</v>
+        <v>18.12951275962344</v>
       </c>
       <c r="N19">
-        <v>11.40446728391076</v>
+        <v>17.96270580802747</v>
       </c>
       <c r="O19">
-        <v>11.96368496556841</v>
+        <v>19.56636447238667</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.80530864603572</v>
+        <v>8.335380117566924</v>
       </c>
       <c r="C20">
-        <v>7.235537407761806</v>
+        <v>5.556096771272833</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.92895665601776</v>
+        <v>22.84738002195394</v>
       </c>
       <c r="F20">
-        <v>32.87485851181523</v>
+        <v>38.75410192473194</v>
       </c>
       <c r="G20">
-        <v>17.65239930687186</v>
+        <v>24.31133475582492</v>
       </c>
       <c r="H20">
-        <v>7.635694081676086</v>
+        <v>13.23705204299186</v>
       </c>
       <c r="I20">
-        <v>11.0642144624918</v>
+        <v>18.94862409061891</v>
       </c>
       <c r="J20">
-        <v>4.67725427788221</v>
+        <v>7.775876052810557</v>
       </c>
       <c r="K20">
-        <v>12.21582374006806</v>
+        <v>8.757328112179771</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.19869826884743</v>
+        <v>18.18633437211844</v>
       </c>
       <c r="N20">
-        <v>11.34596331343217</v>
+        <v>17.94544149908294</v>
       </c>
       <c r="O20">
-        <v>11.94701534164524</v>
+        <v>19.54291561029702</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.57389075158403</v>
+        <v>8.692434121506039</v>
       </c>
       <c r="C21">
-        <v>7.548122559976565</v>
+        <v>5.689344070902812</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.9583171536166</v>
+        <v>23.02700170355699</v>
       </c>
       <c r="F21">
-        <v>34.24981699381026</v>
+        <v>38.9124817270172</v>
       </c>
       <c r="G21">
-        <v>17.95428141071009</v>
+        <v>24.24206497191163</v>
       </c>
       <c r="H21">
-        <v>7.556530415507071</v>
+        <v>13.19129696858993</v>
       </c>
       <c r="I21">
-        <v>10.87609594659367</v>
+        <v>18.85929790672319</v>
       </c>
       <c r="J21">
-        <v>4.648366830539067</v>
+        <v>7.76611201871157</v>
       </c>
       <c r="K21">
-        <v>12.81114804027544</v>
+        <v>9.034967735546426</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.24194673119039</v>
+        <v>18.37928349479107</v>
       </c>
       <c r="N21">
-        <v>11.15216755314852</v>
+        <v>17.88918826687699</v>
       </c>
       <c r="O21">
-        <v>11.90585146941059</v>
+        <v>19.46842699230577</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.05542783180926</v>
+        <v>8.918253307978196</v>
       </c>
       <c r="C22">
-        <v>7.745916386300301</v>
+        <v>5.774270346633389</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.61848913574817</v>
+        <v>23.1476928307043</v>
       </c>
       <c r="F22">
-        <v>35.14598083418799</v>
+        <v>39.02379152362545</v>
       </c>
       <c r="G22">
-        <v>18.17483167345002</v>
+        <v>24.20337461966144</v>
       </c>
       <c r="H22">
-        <v>7.509312829060661</v>
+        <v>13.16293174318303</v>
       </c>
       <c r="I22">
-        <v>10.7617348699902</v>
+        <v>18.8036698321136</v>
       </c>
       <c r="J22">
-        <v>4.629906008323912</v>
+        <v>7.759986420381278</v>
       </c>
       <c r="K22">
-        <v>13.1858725430012</v>
+        <v>9.210761769818721</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.9126242999755</v>
+        <v>18.50674108943005</v>
       </c>
       <c r="N22">
-        <v>11.02753158207673</v>
+        <v>17.85372533314269</v>
       </c>
       <c r="O22">
-        <v>11.89063240079203</v>
+        <v>19.42295126312638</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.80032039786266</v>
+        <v>8.79843532689774</v>
       </c>
       <c r="C23">
-        <v>7.640950680117575</v>
+        <v>5.729146567380436</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.26732362704418</v>
+        <v>23.08298518243587</v>
       </c>
       <c r="F23">
-        <v>34.66796310873531</v>
+        <v>38.96367703589026</v>
       </c>
       <c r="G23">
-        <v>18.05495911495113</v>
+        <v>24.22342032077036</v>
       </c>
       <c r="H23">
-        <v>7.534085670057306</v>
+        <v>13.17793012506325</v>
       </c>
       <c r="I23">
-        <v>10.82195235670344</v>
+        <v>18.83310785293495</v>
       </c>
       <c r="J23">
-        <v>4.639721044166771</v>
+        <v>7.7632324216556</v>
       </c>
       <c r="K23">
-        <v>12.98719427979539</v>
+        <v>9.117465134809862</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.55721745214087</v>
+        <v>18.43860119707929</v>
       </c>
       <c r="N23">
-        <v>11.09387001772312</v>
+        <v>17.87253372977797</v>
       </c>
       <c r="O23">
-        <v>11.89764573838028</v>
+        <v>19.4469287793723</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.7923953085371</v>
+        <v>8.329420921141761</v>
       </c>
       <c r="C24">
-        <v>7.230320139733946</v>
+        <v>5.55388373164486</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.91192758655123</v>
+        <v>22.84450190982348</v>
       </c>
       <c r="F24">
-        <v>32.85235803384897</v>
+        <v>38.75164652982779</v>
       </c>
       <c r="G24">
-        <v>17.64784980557126</v>
+        <v>24.31257761279629</v>
       </c>
       <c r="H24">
-        <v>7.63706115713916</v>
+        <v>13.23782587657161</v>
       </c>
       <c r="I24">
-        <v>11.06742689107799</v>
+        <v>18.95013054964967</v>
       </c>
       <c r="J24">
-        <v>4.677733601274497</v>
+        <v>7.776039971338422</v>
       </c>
       <c r="K24">
-        <v>12.20585267086677</v>
+        <v>8.752697054862926</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.18386824583188</v>
+        <v>18.183205925368</v>
       </c>
       <c r="N24">
-        <v>11.34916554156344</v>
+        <v>17.94638296839515</v>
       </c>
       <c r="O24">
-        <v>11.94787647722092</v>
+        <v>19.54418715888988</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.61583779989937</v>
+        <v>7.793051357363262</v>
       </c>
       <c r="C25">
-        <v>6.760246688461286</v>
+        <v>5.356156811711306</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.39982723272643</v>
+        <v>22.60232048543361</v>
       </c>
       <c r="F25">
-        <v>30.8902238449245</v>
+        <v>38.55709993718598</v>
       </c>
       <c r="G25">
-        <v>17.30464491189927</v>
+        <v>24.43680277131183</v>
       </c>
       <c r="H25">
-        <v>7.766179128327476</v>
+        <v>13.30904718586735</v>
       </c>
       <c r="I25">
-        <v>11.36595742779247</v>
+        <v>19.08817970666092</v>
       </c>
       <c r="J25">
-        <v>4.720580262874605</v>
+        <v>7.790958844249453</v>
       </c>
       <c r="K25">
-        <v>11.30224390005266</v>
+        <v>8.336064921168415</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.85286413809311</v>
+        <v>17.91458911873551</v>
       </c>
       <c r="N25">
-        <v>11.63350231335226</v>
+        <v>18.03165899052741</v>
       </c>
       <c r="O25">
-        <v>12.04823614277901</v>
+        <v>19.66283373401462</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_180/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.374395229308384</v>
+        <v>11.67270007214602</v>
       </c>
       <c r="C2">
-        <v>5.203795761811899</v>
+        <v>6.391857790948414</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.43784363511274</v>
+        <v>18.24902198256712</v>
       </c>
       <c r="F2">
-        <v>38.4438280466111</v>
+        <v>29.45111589322945</v>
       </c>
       <c r="G2">
-        <v>24.55215707027971</v>
+        <v>17.12907242126972</v>
       </c>
       <c r="H2">
-        <v>13.36719475602441</v>
+        <v>7.875410747506921</v>
       </c>
       <c r="I2">
-        <v>19.20001780696323</v>
+        <v>11.61180064080996</v>
       </c>
       <c r="J2">
-        <v>7.802901303766303</v>
+        <v>4.753768924441542</v>
       </c>
       <c r="K2">
-        <v>8.010754545515489</v>
+        <v>10.58587119080185</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.7238058941527</v>
+        <v>14.81810586086849</v>
       </c>
       <c r="N2">
-        <v>18.09932247087093</v>
+        <v>11.85092319078751</v>
       </c>
       <c r="O2">
-        <v>19.76198620739943</v>
+        <v>12.15758930561735</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.077448063182628</v>
+        <v>10.98584970074837</v>
       </c>
       <c r="C3">
-        <v>5.096704019498737</v>
+        <v>6.129057397299558</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.33542145644505</v>
+        <v>17.44967278911374</v>
       </c>
       <c r="F3">
-        <v>38.38599728069765</v>
+        <v>28.48470839798866</v>
       </c>
       <c r="G3">
-        <v>24.64510191976469</v>
+        <v>17.0549190836289</v>
       </c>
       <c r="H3">
-        <v>13.41017223664875</v>
+        <v>7.957666425388936</v>
       </c>
       <c r="I3">
-        <v>19.28218386667823</v>
+        <v>11.7933672080087</v>
       </c>
       <c r="J3">
-        <v>7.811596499272455</v>
+        <v>4.777311009609731</v>
       </c>
       <c r="K3">
-        <v>7.779556212349416</v>
+        <v>10.06951968084999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.59941163622951</v>
+        <v>14.08560974042064</v>
       </c>
       <c r="N3">
-        <v>18.14824180939638</v>
+        <v>12.0034820411793</v>
       </c>
       <c r="O3">
-        <v>19.83652868336744</v>
+        <v>12.25177599640884</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.889245488179652</v>
+        <v>10.5407937454936</v>
       </c>
       <c r="C4">
-        <v>5.029201761364854</v>
+        <v>5.961543812111229</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.27712177456487</v>
+        <v>16.95094701262473</v>
       </c>
       <c r="F4">
-        <v>38.35989117209337</v>
+        <v>27.89776017714151</v>
       </c>
       <c r="G4">
-        <v>24.70940765283616</v>
+        <v>17.03026129319925</v>
       </c>
       <c r="H4">
-        <v>13.43832495559749</v>
+        <v>8.012048311619228</v>
       </c>
       <c r="I4">
-        <v>19.33578196842974</v>
+        <v>11.911853919905</v>
       </c>
       <c r="J4">
-        <v>7.817233551842567</v>
+        <v>4.792292015737792</v>
       </c>
       <c r="K4">
-        <v>7.632630657485709</v>
+        <v>9.737718893712669</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.52562396554414</v>
+        <v>13.62174992726646</v>
       </c>
       <c r="N4">
-        <v>18.17979661808574</v>
+        <v>12.09978236697905</v>
       </c>
       <c r="O4">
-        <v>19.88591780597908</v>
+        <v>12.31886368462866</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.811185048778993</v>
+        <v>10.35360774205696</v>
       </c>
       <c r="C5">
-        <v>5.001277900038029</v>
+        <v>5.891792269867142</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.25453599160877</v>
+        <v>16.74601185262748</v>
       </c>
       <c r="F5">
-        <v>38.35162517872366</v>
+        <v>27.66052087253156</v>
       </c>
       <c r="G5">
-        <v>24.73742536140879</v>
+        <v>17.02526349017675</v>
       </c>
       <c r="H5">
-        <v>13.45024152740713</v>
+        <v>8.035158817988769</v>
       </c>
       <c r="I5">
-        <v>19.35841576266009</v>
+        <v>11.96184864401704</v>
       </c>
       <c r="J5">
-        <v>7.819605865296452</v>
+        <v>4.798530311646245</v>
       </c>
       <c r="K5">
-        <v>7.571562179373986</v>
+        <v>9.598883469867314</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.49623206897485</v>
+        <v>13.42941327062482</v>
       </c>
       <c r="N5">
-        <v>18.19303819089714</v>
+        <v>12.13969468502541</v>
       </c>
       <c r="O5">
-        <v>19.90695388738918</v>
+        <v>12.34843755153629</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.798144157934363</v>
+        <v>10.32217558212874</v>
       </c>
       <c r="C6">
-        <v>4.99661673355544</v>
+        <v>5.880122077919294</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.25085691285107</v>
+        <v>16.71188907277869</v>
       </c>
       <c r="F6">
-        <v>38.35039610618799</v>
+        <v>27.62125494448608</v>
       </c>
       <c r="G6">
-        <v>24.74218693915891</v>
+        <v>17.02473262266957</v>
       </c>
       <c r="H6">
-        <v>13.45224710148193</v>
+        <v>8.039052936042946</v>
       </c>
       <c r="I6">
-        <v>19.36222194768155</v>
+        <v>11.97025213664876</v>
       </c>
       <c r="J6">
-        <v>7.820004331802015</v>
+        <v>4.799574266280477</v>
       </c>
       <c r="K6">
-        <v>7.561351303296399</v>
+        <v>9.575613972739378</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.49139319545729</v>
+        <v>13.39728369111205</v>
       </c>
       <c r="N6">
-        <v>18.19526008909742</v>
+        <v>12.1463627485544</v>
       </c>
       <c r="O6">
-        <v>19.91050183366237</v>
+        <v>12.35348062611683</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.888198113476665</v>
+        <v>10.53829279448001</v>
       </c>
       <c r="C7">
-        <v>5.028826823727199</v>
+        <v>5.960609060643613</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.27681240741706</v>
+        <v>16.94818965752293</v>
       </c>
       <c r="F7">
-        <v>38.35977007876599</v>
+        <v>27.89455235638435</v>
       </c>
       <c r="G7">
-        <v>24.70977818012251</v>
+        <v>17.03017371248822</v>
       </c>
       <c r="H7">
-        <v>13.43848386787178</v>
+        <v>8.012356175929211</v>
       </c>
       <c r="I7">
-        <v>19.33608400757666</v>
+        <v>11.91252130456117</v>
       </c>
       <c r="J7">
-        <v>7.817265241079976</v>
+        <v>4.792375605911771</v>
       </c>
       <c r="K7">
-        <v>7.631811830384254</v>
+        <v>9.735861055664088</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.5252248011903</v>
+        <v>13.61916906830808</v>
       </c>
       <c r="N7">
-        <v>18.1799736475906</v>
+        <v>12.10031791827275</v>
       </c>
       <c r="O7">
-        <v>19.88619782373262</v>
+        <v>12.31925359800767</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.273290002085167</v>
+        <v>11.44073735397566</v>
       </c>
       <c r="C8">
-        <v>5.167246813987339</v>
+        <v>6.302553887724259</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.40158758889747</v>
+        <v>17.97521418300502</v>
       </c>
       <c r="F8">
-        <v>38.42194209853333</v>
+        <v>29.11675738079136</v>
       </c>
       <c r="G8">
-        <v>24.58269809676918</v>
+        <v>17.09905697520262</v>
       </c>
       <c r="H8">
-        <v>13.3816474629691</v>
+        <v>7.902952132742936</v>
       </c>
       <c r="I8">
-        <v>19.22769568973256</v>
+        <v>11.67291907921256</v>
       </c>
       <c r="J8">
-        <v>7.805837638475041</v>
+        <v>4.761777742034536</v>
       </c>
       <c r="K8">
-        <v>7.932099780906807</v>
+        <v>10.41094357740966</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.68039273775248</v>
+        <v>14.5685985016494</v>
       </c>
       <c r="N8">
-        <v>18.11587536308782</v>
+        <v>11.90298487879483</v>
       </c>
       <c r="O8">
-        <v>19.78693681654588</v>
+        <v>12.18808685519982</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.977599012635157</v>
+        <v>13.02411375577781</v>
       </c>
       <c r="C9">
-        <v>5.423862795065766</v>
+        <v>6.922135922160984</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.68180733605704</v>
+        <v>19.9154389686293</v>
       </c>
       <c r="F9">
-        <v>38.61801363421952</v>
+        <v>31.55095346534884</v>
       </c>
       <c r="G9">
-        <v>24.39122974276666</v>
+        <v>17.40787751607181</v>
       </c>
       <c r="H9">
-        <v>13.28417084122097</v>
+        <v>7.720399668595509</v>
       </c>
       <c r="I9">
-        <v>19.04009600582378</v>
+        <v>11.26116666787503</v>
       </c>
       <c r="J9">
-        <v>7.785785179004176</v>
+        <v>4.705895986909474</v>
       </c>
       <c r="K9">
-        <v>8.479389878658514</v>
+        <v>11.61465913780067</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.00405863141747</v>
+        <v>16.31003692918351</v>
       </c>
       <c r="N9">
-        <v>18.00217923592677</v>
+        <v>11.53649416520023</v>
       </c>
       <c r="O9">
-        <v>19.62103398202681</v>
+        <v>12.00864243029221</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.459218758925141</v>
+        <v>14.07298995809342</v>
       </c>
       <c r="C10">
-        <v>5.602166956147967</v>
+        <v>7.343950245547623</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.90809023444778</v>
+        <v>21.28396302243554</v>
       </c>
       <c r="F10">
-        <v>38.80653941706633</v>
+        <v>33.34580322421038</v>
       </c>
       <c r="G10">
-        <v>24.28615990173172</v>
+        <v>17.75058200521044</v>
       </c>
       <c r="H10">
-        <v>13.22104910937764</v>
+        <v>7.60762305224114</v>
       </c>
       <c r="I10">
-        <v>18.91743866181478</v>
+        <v>10.99798944992191</v>
       </c>
       <c r="J10">
-        <v>7.772477214856393</v>
+        <v>4.667273611765177</v>
       </c>
       <c r="K10">
-        <v>8.853584832421355</v>
+        <v>12.42275408544847</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.25203763454151</v>
+        <v>17.5450225956716</v>
       </c>
       <c r="N10">
-        <v>17.9258984410666</v>
+        <v>11.27918390291264</v>
       </c>
       <c r="O10">
-        <v>19.51670678536665</v>
+        <v>11.93040399916228</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.669731376000261</v>
+        <v>14.52529952631313</v>
       </c>
       <c r="C11">
-        <v>5.680833858929668</v>
+        <v>7.528244263520277</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.01516727104783</v>
+        <v>21.89233886542615</v>
       </c>
       <c r="F11">
-        <v>38.90176201410328</v>
+        <v>34.16084545216432</v>
       </c>
       <c r="G11">
-        <v>24.2461705683763</v>
+        <v>17.93337550515321</v>
       </c>
       <c r="H11">
-        <v>13.19417214255724</v>
+        <v>7.561401271110252</v>
       </c>
       <c r="I11">
-        <v>18.86492571586032</v>
+        <v>10.88779612548671</v>
       </c>
       <c r="J11">
-        <v>7.766729789246961</v>
+        <v>4.650214137095602</v>
       </c>
       <c r="K11">
-        <v>9.017303629490446</v>
+        <v>12.77340652020072</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.36669832934271</v>
+        <v>18.1743108690021</v>
       </c>
       <c r="N11">
-        <v>17.89275743311297</v>
+        <v>11.16460657150287</v>
       </c>
       <c r="O11">
-        <v>19.47306693761943</v>
+        <v>11.90785083388944</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.748158492768932</v>
+        <v>14.6930139745131</v>
       </c>
       <c r="C12">
-        <v>5.710254223592901</v>
+        <v>7.596918613606039</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.05628311356137</v>
+        <v>22.12056584406356</v>
       </c>
       <c r="F12">
-        <v>38.93916071085518</v>
+        <v>34.46907556276088</v>
       </c>
       <c r="G12">
-        <v>24.2321561882069</v>
+        <v>18.00657789290866</v>
       </c>
       <c r="H12">
-        <v>13.18425836454625</v>
+        <v>7.544669952893976</v>
       </c>
       <c r="I12">
-        <v>18.84551231258391</v>
+        <v>10.84753253314035</v>
       </c>
       <c r="J12">
-        <v>7.764597256758055</v>
+        <v>4.643826049290415</v>
       </c>
       <c r="K12">
-        <v>9.078331647383663</v>
+        <v>12.90372927586708</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.41035272381431</v>
+        <v>18.40778852493368</v>
       </c>
       <c r="N12">
-        <v>17.88043106010581</v>
+        <v>11.12156597191413</v>
       </c>
       <c r="O12">
-        <v>19.45709158391645</v>
+        <v>11.90130510517633</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.73132596184616</v>
+        <v>14.65705210099694</v>
       </c>
       <c r="C13">
-        <v>5.70393470254143</v>
+        <v>7.582178195820871</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.04740325903516</v>
+        <v>22.07151028200796</v>
       </c>
       <c r="F13">
-        <v>38.93104698519058</v>
+        <v>34.40271370627077</v>
       </c>
       <c r="G13">
-        <v>24.23512414519354</v>
+        <v>17.9906337000906</v>
       </c>
       <c r="H13">
-        <v>13.1863817391831</v>
+        <v>7.548238322281694</v>
       </c>
       <c r="I13">
-        <v>18.84967234188256</v>
+        <v>10.85613729478337</v>
       </c>
       <c r="J13">
-        <v>7.765054586362181</v>
+        <v>4.645198660069879</v>
       </c>
       <c r="K13">
-        <v>9.065231749836599</v>
+        <v>12.87577171775737</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.40094103009161</v>
+        <v>18.3577182806484</v>
       </c>
       <c r="N13">
-        <v>17.88307584233671</v>
+        <v>11.13082022055498</v>
       </c>
       <c r="O13">
-        <v>19.46050768116724</v>
+        <v>11.9026241941889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.676209755600853</v>
+        <v>14.53916890227955</v>
       </c>
       <c r="C14">
-        <v>5.683261782985327</v>
+        <v>7.533916573590418</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.01853867015945</v>
+        <v>21.91115890844515</v>
       </c>
       <c r="F14">
-        <v>38.90481209720507</v>
+        <v>34.1862129493792</v>
       </c>
       <c r="G14">
-        <v>24.24499494303347</v>
+        <v>17.93931750455651</v>
       </c>
       <c r="H14">
-        <v>13.19335124172799</v>
+        <v>7.560009058680111</v>
       </c>
       <c r="I14">
-        <v>18.86331910270899</v>
+        <v>10.88445369684713</v>
       </c>
       <c r="J14">
-        <v>7.766553465817258</v>
+        <v>4.649687151037936</v>
       </c>
       <c r="K14">
-        <v>9.022344034568345</v>
+        <v>12.78417769584165</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.37028527784571</v>
+        <v>18.19361544917873</v>
       </c>
       <c r="N14">
-        <v>17.89173886237967</v>
+        <v>11.16105868225824</v>
       </c>
       <c r="O14">
-        <v>19.47174160534036</v>
+        <v>11.9072716404958</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.642280045468521</v>
+        <v>14.46649796470007</v>
       </c>
       <c r="C15">
-        <v>5.670550458277464</v>
+        <v>7.504209321744209</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.00093143366358</v>
+        <v>21.81265596394515</v>
       </c>
       <c r="F15">
-        <v>38.88891633025625</v>
+        <v>34.05354137820586</v>
       </c>
       <c r="G15">
-        <v>24.25118825385846</v>
+        <v>17.90840657253579</v>
       </c>
       <c r="H15">
-        <v>13.19765462892071</v>
+        <v>7.567320772197079</v>
       </c>
       <c r="I15">
-        <v>18.87173961513846</v>
+        <v>10.9019919538187</v>
       </c>
       <c r="J15">
-        <v>7.767477283829092</v>
+        <v>4.652445811650565</v>
       </c>
       <c r="K15">
-        <v>8.995946983389297</v>
+        <v>12.72775255693413</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.35153738709682</v>
+        <v>18.09247191438272</v>
       </c>
       <c r="N15">
-        <v>17.89707428159817</v>
+        <v>11.1796255985175</v>
       </c>
       <c r="O15">
-        <v>19.47869437623633</v>
+        <v>11.91038170425135</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.445283678502337</v>
+        <v>14.04293114162951</v>
       </c>
       <c r="C16">
-        <v>5.596975167443835</v>
+        <v>7.33175142075765</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.9011734997365</v>
+        <v>21.24390864483933</v>
       </c>
       <c r="F16">
-        <v>38.80050506969258</v>
+        <v>33.29249127675703</v>
       </c>
       <c r="G16">
-        <v>24.28893092894859</v>
+        <v>17.73918748537698</v>
       </c>
       <c r="H16">
-        <v>13.22284253241787</v>
+        <v>7.610749449127533</v>
       </c>
       <c r="I16">
-        <v>18.92093658114808</v>
+        <v>11.00539039730324</v>
       </c>
       <c r="J16">
-        <v>7.772858974136931</v>
+        <v>4.668398635091393</v>
       </c>
       <c r="K16">
-        <v>8.842751598218964</v>
+        <v>12.39949475076305</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.24457888890606</v>
+        <v>17.50321912580522</v>
       </c>
       <c r="N16">
-        <v>17.92809559238584</v>
+        <v>11.28672086667561</v>
       </c>
       <c r="O16">
-        <v>19.51963568151249</v>
+        <v>11.93215043554007</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.322193215840779</v>
+        <v>13.77672905044008</v>
       </c>
       <c r="C17">
-        <v>5.551200091151691</v>
+        <v>7.223992226866163</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.84101651879454</v>
+        <v>20.89128028728277</v>
       </c>
       <c r="F17">
-        <v>38.74867689228675</v>
+        <v>32.82508803264999</v>
       </c>
       <c r="G17">
-        <v>24.31408893621573</v>
+        <v>17.6423534737618</v>
       </c>
       <c r="H17">
-        <v>13.23876490580546</v>
+        <v>7.638721235805493</v>
       </c>
       <c r="I17">
-        <v>18.95195841314103</v>
+        <v>11.07132627167558</v>
       </c>
       <c r="J17">
-        <v>7.776238829088235</v>
+        <v>4.678314842647961</v>
       </c>
       <c r="K17">
-        <v>8.747080304646994</v>
+        <v>12.19375737880405</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.17941566464308</v>
+        <v>17.16588280611445</v>
       </c>
       <c r="N17">
-        <v>17.94752498176876</v>
+        <v>11.3530480503046</v>
       </c>
       <c r="O17">
-        <v>19.5457306716591</v>
+        <v>11.94892850159193</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.250590157480312</v>
+        <v>13.62127889783972</v>
       </c>
       <c r="C18">
-        <v>5.524642351165885</v>
+        <v>7.161298406267812</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.8068071712477</v>
+        <v>20.68712864350919</v>
       </c>
       <c r="F18">
-        <v>38.7197585934527</v>
+        <v>32.55612404518383</v>
       </c>
       <c r="G18">
-        <v>24.32929370091194</v>
+        <v>17.589182998259</v>
       </c>
       <c r="H18">
-        <v>13.24809599664057</v>
+        <v>7.655285448811247</v>
       </c>
       <c r="I18">
-        <v>18.97011051215742</v>
+        <v>11.11014140793254</v>
       </c>
       <c r="J18">
-        <v>7.778211685472583</v>
+        <v>4.684066475331424</v>
       </c>
       <c r="K18">
-        <v>8.691442238244136</v>
+        <v>12.07382775388049</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.14211191054511</v>
+        <v>16.98778640645533</v>
       </c>
       <c r="N18">
-        <v>17.95884709079955</v>
+        <v>11.39143109706468</v>
       </c>
       <c r="O18">
-        <v>19.56109923775536</v>
+        <v>11.95979862608425</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.226210225090618</v>
+        <v>13.56824457128263</v>
       </c>
       <c r="C19">
-        <v>5.515611560453584</v>
+        <v>7.139949562076057</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.79529250180252</v>
+        <v>20.61778207409082</v>
       </c>
       <c r="F19">
-        <v>38.71012113242946</v>
+        <v>32.46504250291451</v>
       </c>
       <c r="G19">
-        <v>24.33456774114127</v>
+        <v>17.57161039746288</v>
       </c>
       <c r="H19">
-        <v>13.25128505872669</v>
+        <v>7.660974282146785</v>
       </c>
       <c r="I19">
-        <v>18.97630960639642</v>
+        <v>11.12343378265742</v>
       </c>
       <c r="J19">
-        <v>7.778884621577367</v>
+        <v>4.68602218046779</v>
       </c>
       <c r="K19">
-        <v>8.672500375602771</v>
+        <v>12.0329485703471</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.12951275962344</v>
+        <v>16.92717967560301</v>
       </c>
       <c r="N19">
-        <v>17.96270580802747</v>
+        <v>11.40446728391079</v>
       </c>
       <c r="O19">
-        <v>19.56636447238667</v>
+        <v>11.96368496556841</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.335380117566924</v>
+        <v>13.80530864603579</v>
       </c>
       <c r="C20">
-        <v>5.556096771272833</v>
+        <v>7.235537407761987</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.84738002195394</v>
+        <v>20.92895665601778</v>
       </c>
       <c r="F20">
-        <v>38.75410192473194</v>
+        <v>32.87485851181519</v>
       </c>
       <c r="G20">
-        <v>24.31133475582492</v>
+        <v>17.65239930687176</v>
       </c>
       <c r="H20">
-        <v>13.23705204299186</v>
+        <v>7.635694081676032</v>
       </c>
       <c r="I20">
-        <v>18.94862409061891</v>
+        <v>11.06421446249171</v>
       </c>
       <c r="J20">
-        <v>7.775876052810557</v>
+        <v>4.677254277882276</v>
       </c>
       <c r="K20">
-        <v>8.757328112179771</v>
+        <v>12.21582374006814</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.18633437211844</v>
+        <v>17.19869826884743</v>
       </c>
       <c r="N20">
-        <v>17.94544149908294</v>
+        <v>11.34596331343213</v>
       </c>
       <c r="O20">
-        <v>19.54291561029702</v>
+        <v>11.94701534164515</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.692434121506039</v>
+        <v>14.57389075158408</v>
       </c>
       <c r="C21">
-        <v>5.689344070902812</v>
+        <v>7.548122559976403</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.02700170355699</v>
+        <v>21.95831715361668</v>
       </c>
       <c r="F21">
-        <v>38.9124817270172</v>
+        <v>34.24981699381032</v>
       </c>
       <c r="G21">
-        <v>24.24206497191163</v>
+        <v>17.95428141071002</v>
       </c>
       <c r="H21">
-        <v>13.19129696858993</v>
+        <v>7.556530415507062</v>
       </c>
       <c r="I21">
-        <v>18.85929790672319</v>
+        <v>10.87609594659359</v>
       </c>
       <c r="J21">
-        <v>7.76611201871157</v>
+        <v>4.648366830539134</v>
       </c>
       <c r="K21">
-        <v>9.034967735546426</v>
+        <v>12.81114804027545</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.37928349479107</v>
+        <v>18.24194673119031</v>
       </c>
       <c r="N21">
-        <v>17.88918826687699</v>
+        <v>11.15216755314852</v>
       </c>
       <c r="O21">
-        <v>19.46842699230577</v>
+        <v>11.90585146941054</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.918253307978196</v>
+        <v>15.05542783180926</v>
       </c>
       <c r="C22">
-        <v>5.774270346633389</v>
+        <v>7.745916386300461</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.1476928307043</v>
+        <v>22.61848913574816</v>
       </c>
       <c r="F22">
-        <v>39.02379152362545</v>
+        <v>35.14598083418798</v>
       </c>
       <c r="G22">
-        <v>24.20337461966144</v>
+        <v>18.17483167345005</v>
       </c>
       <c r="H22">
-        <v>13.16293174318303</v>
+        <v>7.509312829060605</v>
       </c>
       <c r="I22">
-        <v>18.8036698321136</v>
+        <v>10.76173486999013</v>
       </c>
       <c r="J22">
-        <v>7.759986420381278</v>
+        <v>4.629906008323945</v>
       </c>
       <c r="K22">
-        <v>9.210761769818721</v>
+        <v>13.18587254300116</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.50674108943005</v>
+        <v>18.91262429997547</v>
       </c>
       <c r="N22">
-        <v>17.85372533314269</v>
+        <v>11.0275315820767</v>
       </c>
       <c r="O22">
-        <v>19.42295126312638</v>
+        <v>11.89063240079197</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.79843532689774</v>
+        <v>14.80032039786266</v>
       </c>
       <c r="C23">
-        <v>5.729146567380436</v>
+        <v>7.64095068011767</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.08298518243587</v>
+        <v>22.26732362704423</v>
       </c>
       <c r="F23">
-        <v>38.96367703589026</v>
+        <v>34.66796310873534</v>
       </c>
       <c r="G23">
-        <v>24.22342032077036</v>
+        <v>18.05495911495102</v>
       </c>
       <c r="H23">
-        <v>13.17793012506325</v>
+        <v>7.534085670057311</v>
       </c>
       <c r="I23">
-        <v>18.83310785293495</v>
+        <v>10.82195235670339</v>
       </c>
       <c r="J23">
-        <v>7.7632324216556</v>
+        <v>4.639721044166771</v>
       </c>
       <c r="K23">
-        <v>9.117465134809862</v>
+        <v>12.98719427979542</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.43860119707929</v>
+        <v>18.55721745214086</v>
       </c>
       <c r="N23">
-        <v>17.87253372977797</v>
+        <v>11.09387001772306</v>
       </c>
       <c r="O23">
-        <v>19.4469287793723</v>
+        <v>11.89764573838021</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.329420921141761</v>
+        <v>13.79239530853717</v>
       </c>
       <c r="C24">
-        <v>5.55388373164486</v>
+        <v>7.230320139733972</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.84450190982348</v>
+        <v>20.91192758655121</v>
       </c>
       <c r="F24">
-        <v>38.75164652982779</v>
+        <v>32.85235803384891</v>
       </c>
       <c r="G24">
-        <v>24.31257761279629</v>
+        <v>17.64784980557124</v>
       </c>
       <c r="H24">
-        <v>13.23782587657161</v>
+        <v>7.637061157139106</v>
       </c>
       <c r="I24">
-        <v>18.95013054964967</v>
+        <v>11.06742689107793</v>
       </c>
       <c r="J24">
-        <v>7.776039971338422</v>
+        <v>4.677733601274529</v>
       </c>
       <c r="K24">
-        <v>8.752697054862926</v>
+        <v>12.20585267086685</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.183205925368</v>
+        <v>17.18386824583186</v>
       </c>
       <c r="N24">
-        <v>17.94638296839515</v>
+        <v>11.34916554156348</v>
       </c>
       <c r="O24">
-        <v>19.54418715888988</v>
+        <v>11.94787647722089</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.793051357363262</v>
+        <v>12.6158377998993</v>
       </c>
       <c r="C25">
-        <v>5.356156811711306</v>
+        <v>6.760246688461448</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>22.60232048543361</v>
+        <v>19.39982723272641</v>
       </c>
       <c r="F25">
-        <v>38.55709993718598</v>
+        <v>30.89022384492451</v>
       </c>
       <c r="G25">
-        <v>24.43680277131183</v>
+        <v>17.30464491189937</v>
       </c>
       <c r="H25">
-        <v>13.30904718586735</v>
+        <v>7.766179128327598</v>
       </c>
       <c r="I25">
-        <v>19.08817970666092</v>
+        <v>11.36595742779257</v>
       </c>
       <c r="J25">
-        <v>7.790958844249453</v>
+        <v>4.72058026287457</v>
       </c>
       <c r="K25">
-        <v>8.336064921168415</v>
+        <v>11.30224390005266</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.91458911873551</v>
+        <v>15.8528641380931</v>
       </c>
       <c r="N25">
-        <v>18.03165899052741</v>
+        <v>11.63350231335229</v>
       </c>
       <c r="O25">
-        <v>19.66283373401462</v>
+        <v>12.04823614277907</v>
       </c>
     </row>
   </sheetData>
